--- a/donations.xlsx
+++ b/donations.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{429C56CA-E1B0-4358-A4FC-5514B3DB2A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2058C-44A9-48BD-9517-5C10B2012BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{F9926D3C-A006-4CE9-BDFD-ED5F3CC7C9FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t>Donations</t>
+  </si>
   <si>
     <t>Shares</t>
   </si>
   <si>
-    <t>Donations</t>
+    <t>Marketing_Amount</t>
+  </si>
+  <si>
+    <t>Num_Email_Subscribers</t>
+  </si>
+  <si>
+    <t>1429.22</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1420.04</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>1993.62</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2772.26</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>3060.26</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>2606.81</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>3585.02</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>3645.59</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>4069.03</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>4623.17</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>2900</t>
   </si>
 </sst>
 </file>
@@ -50,9 +173,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -84,7 +207,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,44 +230,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -172,31 +295,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -224,23 +330,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -252,136 +341,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -403,114 +536,183 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95FDA2A-1EA4-42C3-B129-3EC88F563F0E}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>1429.22</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>1420.04</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>150</v>
-      </c>
-      <c r="B4">
-        <v>1993.62</v>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5">
-        <v>2772.26</v>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>250</v>
-      </c>
-      <c r="B6">
-        <v>3060.26</v>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>300</v>
-      </c>
-      <c r="B7">
-        <v>2606.81</v>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>350</v>
-      </c>
-      <c r="B8">
-        <v>3585.02</v>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>400</v>
-      </c>
-      <c r="B9">
-        <v>3645.59</v>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>450</v>
-      </c>
-      <c r="B10">
-        <v>4069.03</v>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>500</v>
-      </c>
-      <c r="B11">
-        <v>4623.17</v>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B1:B11 C2:D11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -802,13 +1004,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14242D77-93F5-477F-B68F-1D269D4972C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CA28CD-7271-4523-AE53-2BDAA9A69A86}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6A8D327-3201-4924-A670-80CB60E742DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B639AB43-9C6C-4217-9BDB-806A01319589}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707DE9A2-201F-4F7B-BCB7-002734536682}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85F72BD8-F2D2-4475-BC8E-16EF50935C6A}"/>
 </file>